--- a/testData/results/unzip_x86_unzip_arm_result.xlsx
+++ b/testData/results/unzip_x86_unzip_arm_result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E252"/>
+  <dimension ref="A1:E220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,70 +451,70 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sub_404b49</t>
+          <t>sub_41d3a0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64</v>
+        <v>724</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>sub_40216c</t>
+          <t>sub_41eab8</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>64</v>
+        <v>876</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7282051282051283</v>
+        <v>0.5844820969433306</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sub_406c7a</t>
+          <t>sub_416ff0</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>sub_401ad4</t>
+          <t>sub_418778</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>28</v>
+        <v>228</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7714285714285715</v>
+        <v>0.6525565175565176</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>memcpy</t>
+          <t>sub_40403f</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>memcpy</t>
+          <t>sub_406004</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>memmove</t>
+          <t>__strcat_chk</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -522,20 +522,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>memmove</t>
+          <t>__strcat_chk</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>16</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>__cxa_finalize</t>
+          <t>getenv</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -543,20 +543,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>strtoul</t>
+          <t>getenv</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>16</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>strlen</t>
+          <t>utime</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -564,20 +564,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>strlen</t>
+          <t>utime</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>16</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>fputs</t>
+          <t>free</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -585,20 +585,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>fputs</t>
+          <t>free</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>16</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>__sprintf_chk</t>
+          <t>strcasecmp</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -606,20 +606,20 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>__sprintf_chk</t>
+          <t>strcasecmp</t>
         </is>
       </c>
       <c r="D9" t="n">
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>__cxa_finalize</t>
+          <t>localtime</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -627,20 +627,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>mbstowcs</t>
+          <t>localtime</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>16</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>exit</t>
+          <t>__errno_location</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -648,20 +648,20 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>exit</t>
+          <t>__errno_location</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>16</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>perror</t>
+          <t>unlink</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -669,20 +669,20 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>perror</t>
+          <t>unlink</t>
         </is>
       </c>
       <c r="D12" t="n">
         <v>16</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>iconv_close</t>
+          <t>strncpy</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -690,20 +690,20 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>iconv_close</t>
+          <t>strncpy</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>16</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>__xstat64</t>
+          <t>strcpy</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -711,20 +711,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>__xstat64</t>
+          <t>strcpy</t>
         </is>
       </c>
       <c r="D14" t="n">
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BZ2_bzlibVersion</t>
+          <t>mkdir</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -732,20 +732,20 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>BZ2_bzlibVersion</t>
+          <t>mkdir</t>
         </is>
       </c>
       <c r="D15" t="n">
         <v>16</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>putc</t>
+          <t>iconv</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -753,20 +753,20 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>putc</t>
+          <t>iconv</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v>16</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>opendir</t>
+          <t>qsort</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -774,20 +774,20 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>opendir</t>
+          <t>qsort</t>
         </is>
       </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>fputc</t>
+          <t>isatty</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -795,20 +795,20 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>fputc</t>
+          <t>isatty</t>
         </is>
       </c>
       <c r="D18" t="n">
         <v>16</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>qsort</t>
+          <t>fread</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -816,20 +816,20 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>qsort</t>
+          <t>fread</t>
         </is>
       </c>
       <c r="D19" t="n">
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>__ctype_tolower_loc</t>
+          <t>BZ2_bzlibVersion</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -837,20 +837,20 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>__ctype_tolower_loc</t>
+          <t>BZ2_bzlibVersion</t>
         </is>
       </c>
       <c r="D20" t="n">
         <v>16</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>tcgetattr</t>
+          <t>write</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -858,20 +858,20 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>tcgetattr</t>
+          <t>write</t>
         </is>
       </c>
       <c r="D21" t="n">
         <v>16</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>fileno</t>
+          <t>fclose</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -879,20 +879,20 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>fileno</t>
+          <t>fclose</t>
         </is>
       </c>
       <c r="D22" t="n">
         <v>16</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>localtime</t>
+          <t>__xstat64</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -900,20 +900,20 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>localtime</t>
+          <t>__xstat64</t>
         </is>
       </c>
       <c r="D23" t="n">
         <v>16</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>__memcpy_chk</t>
+          <t>opendir</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -921,20 +921,20 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>__memcpy_chk</t>
+          <t>opendir</t>
         </is>
       </c>
       <c r="D24" t="n">
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>signal</t>
+          <t>__ctype_get_mb_cur_max</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -942,20 +942,20 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>signal</t>
+          <t>__ctype_get_mb_cur_max</t>
         </is>
       </c>
       <c r="D25" t="n">
         <v>16</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>__cxa_finalize</t>
+          <t>strlen</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -963,20 +963,20 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>__snprintf_chk</t>
+          <t>strlen</t>
         </is>
       </c>
       <c r="D26" t="n">
         <v>16</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>fclose</t>
+          <t>__stack_chk_fail</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -984,20 +984,20 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>fclose</t>
+          <t>__stack_chk_fail</t>
         </is>
       </c>
       <c r="D27" t="n">
         <v>16</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>nl_langinfo</t>
+          <t>rewind</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1005,20 +1005,20 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>nl_langinfo</t>
+          <t>rewind</t>
         </is>
       </c>
       <c r="D28" t="n">
         <v>16</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>malloc</t>
+          <t>symlink</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1026,20 +1026,20 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>malloc</t>
+          <t>symlink</t>
         </is>
       </c>
       <c r="D29" t="n">
         <v>16</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>chmod</t>
+          <t>BZ2_bzDecompressInit</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1047,20 +1047,20 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>chmod</t>
+          <t>BZ2_bzDecompressInit</t>
         </is>
       </c>
       <c r="D30" t="n">
         <v>16</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BZ2_bzDecompressInit</t>
+          <t>strrchr</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1068,20 +1068,20 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>BZ2_bzDecompressInit</t>
+          <t>strrchr</t>
         </is>
       </c>
       <c r="D31" t="n">
         <v>16</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>__strncpy_chk</t>
+          <t>fputs</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1089,20 +1089,20 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>__strncpy_chk</t>
+          <t>fputs</t>
         </is>
       </c>
       <c r="D32" t="n">
         <v>16</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>tzset</t>
+          <t>BZ2_bzDecompressEnd</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1110,20 +1110,20 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>tzset</t>
+          <t>BZ2_bzDecompressEnd</t>
         </is>
       </c>
       <c r="D33" t="n">
         <v>16</v>
       </c>
       <c r="E33" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>__strcpy_chk</t>
+          <t>memset</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1131,20 +1131,20 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>__strcpy_chk</t>
+          <t>memset</t>
         </is>
       </c>
       <c r="D34" t="n">
         <v>16</v>
       </c>
       <c r="E34" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BZ2_bzDecompressEnd</t>
+          <t>ioctl</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1152,20 +1152,20 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>BZ2_bzDecompressEnd</t>
+          <t>ioctl</t>
         </is>
       </c>
       <c r="D35" t="n">
         <v>16</v>
       </c>
       <c r="E35" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>__cxa_finalize</t>
+          <t>strncat</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1173,20 +1173,20 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>strncmp</t>
+          <t>strncat</t>
         </is>
       </c>
       <c r="D36" t="n">
         <v>16</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>__cxa_finalize</t>
+          <t>close</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1194,83 +1194,83 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>__libc_start_main</t>
+          <t>close</t>
         </is>
       </c>
       <c r="D37" t="n">
         <v>16</v>
       </c>
       <c r="E37" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>init</t>
+          <t>closedir</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>init</t>
+          <t>closedir</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="E38" t="n">
-        <v>0.7215881320510311</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>main</t>
+          <t>fputc</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1635</v>
+        <v>11</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>main</t>
+          <t>fputc</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1600</v>
+        <v>16</v>
       </c>
       <c r="E39" t="n">
-        <v>0.7995958821516105</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>fini</t>
+          <t>read</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>fini</t>
+          <t>read</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E40" t="n">
-        <v>0.7142857142857144</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>strcat</t>
+          <t>fgets</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1278,20 +1278,20 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>strcat</t>
+          <t>fgets</t>
         </is>
       </c>
       <c r="D41" t="n">
         <v>16</v>
       </c>
       <c r="E41" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>memset</t>
+          <t>calloc</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1299,20 +1299,20 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>memset</t>
+          <t>calloc</t>
         </is>
       </c>
       <c r="D42" t="n">
         <v>16</v>
       </c>
       <c r="E42" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>lseek64</t>
+          <t>strcmp</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1320,20 +1320,20 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>lseek64</t>
+          <t>strcmp</t>
         </is>
       </c>
       <c r="D43" t="n">
         <v>16</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>fchmod</t>
+          <t>putc</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1341,20 +1341,20 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>fchmod</t>
+          <t>putc</t>
         </is>
       </c>
       <c r="D44" t="n">
         <v>16</v>
       </c>
       <c r="E44" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>calloc</t>
+          <t>signal</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1362,20 +1362,20 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>calloc</t>
+          <t>signal</t>
         </is>
       </c>
       <c r="D45" t="n">
         <v>16</v>
       </c>
       <c r="E45" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>strcasecmp</t>
+          <t>__memcpy_chk</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1383,20 +1383,20 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>strcasecmp</t>
+          <t>__memcpy_chk</t>
         </is>
       </c>
       <c r="D46" t="n">
         <v>16</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>gmtime</t>
+          <t>umask</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1404,20 +1404,20 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>gmtime</t>
+          <t>umask</t>
         </is>
       </c>
       <c r="D47" t="n">
         <v>16</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>realloc</t>
+          <t>fopen64</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1425,20 +1425,20 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>realloc</t>
+          <t>fopen64</t>
         </is>
       </c>
       <c r="D48" t="n">
         <v>16</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>rewind</t>
+          <t>memcpy</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1446,20 +1446,20 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>rewind</t>
+          <t>memcpy</t>
         </is>
       </c>
       <c r="D49" t="n">
         <v>16</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>closedir</t>
+          <t>tzset</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1467,20 +1467,20 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>closedir</t>
+          <t>tzset</t>
         </is>
       </c>
       <c r="D50" t="n">
         <v>16</v>
       </c>
       <c r="E50" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>strerror</t>
+          <t>fileno</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1488,20 +1488,20 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>strerror</t>
+          <t>fileno</t>
         </is>
       </c>
       <c r="D51" t="n">
         <v>16</v>
       </c>
       <c r="E51" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>__stack_chk_fail</t>
+          <t>__stpcpy_chk</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1509,20 +1509,20 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>__stack_chk_fail</t>
+          <t>__stpcpy_chk</t>
         </is>
       </c>
       <c r="D52" t="n">
         <v>16</v>
       </c>
       <c r="E52" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>close</t>
+          <t>malloc</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1530,20 +1530,20 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>close</t>
+          <t>malloc</t>
         </is>
       </c>
       <c r="D53" t="n">
         <v>16</v>
       </c>
       <c r="E53" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>strrchr</t>
+          <t>fflush</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1551,20 +1551,20 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>strrchr</t>
+          <t>fflush</t>
         </is>
       </c>
       <c r="D54" t="n">
         <v>16</v>
       </c>
       <c r="E54" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>__cxa_finalize</t>
+          <t>nl_langinfo</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1572,20 +1572,20 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>__gmon_start__</t>
+          <t>nl_langinfo</t>
         </is>
       </c>
       <c r="D55" t="n">
         <v>16</v>
       </c>
       <c r="E55" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>lchown</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1593,20 +1593,20 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>lchown</t>
         </is>
       </c>
       <c r="D56" t="n">
         <v>16</v>
       </c>
       <c r="E56" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>__cxa_finalize</t>
+          <t>BZ2_bzDecompress</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1614,20 +1614,20 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>abort</t>
+          <t>BZ2_bzDecompress</t>
         </is>
       </c>
       <c r="D57" t="n">
         <v>16</v>
       </c>
       <c r="E57" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>__fprintf_chk</t>
+          <t>__strncpy_chk</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1635,20 +1635,20 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>__fprintf_chk</t>
+          <t>__strncpy_chk</t>
         </is>
       </c>
       <c r="D58" t="n">
         <v>16</v>
       </c>
       <c r="E58" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>strcmp</t>
+          <t>chown</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1656,20 +1656,20 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>strcmp</t>
+          <t>chown</t>
         </is>
       </c>
       <c r="D59" t="n">
         <v>16</v>
       </c>
       <c r="E59" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>iconv</t>
+          <t>realloc</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1677,20 +1677,20 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>iconv</t>
+          <t>realloc</t>
         </is>
       </c>
       <c r="D60" t="n">
         <v>16</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>__ctype_b_loc</t>
+          <t>__strcpy_chk</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1698,20 +1698,20 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>__ctype_b_loc</t>
+          <t>__strcpy_chk</t>
         </is>
       </c>
       <c r="D61" t="n">
         <v>16</v>
       </c>
       <c r="E61" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>lchown</t>
+          <t>setlocale</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1719,20 +1719,20 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>lchown</t>
+          <t>setlocale</t>
         </is>
       </c>
       <c r="D62" t="n">
         <v>16</v>
       </c>
       <c r="E62" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>fread</t>
+          <t>iconv_close</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1740,20 +1740,20 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>fread</t>
+          <t>iconv_close</t>
         </is>
       </c>
       <c r="D63" t="n">
         <v>16</v>
       </c>
       <c r="E63" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>wctomb</t>
+          <t>fchmod</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1761,20 +1761,20 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>wctomb</t>
+          <t>fchmod</t>
         </is>
       </c>
       <c r="D64" t="n">
         <v>16</v>
       </c>
       <c r="E64" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>__lxstat64</t>
+          <t>__wctomb_chk</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1782,20 +1782,20 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>__lxstat64</t>
+          <t>__wctomb_chk</t>
         </is>
       </c>
       <c r="D65" t="n">
         <v>16</v>
       </c>
       <c r="E65" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>free</t>
+          <t>chmod</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1803,20 +1803,20 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>free</t>
+          <t>chmod</t>
         </is>
       </c>
       <c r="D66" t="n">
         <v>16</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>__strcat_chk</t>
+          <t>open64</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1824,20 +1824,20 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>__strcat_chk</t>
+          <t>open64</t>
         </is>
       </c>
       <c r="D67" t="n">
         <v>16</v>
       </c>
       <c r="E67" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>__ctype_get_mb_cur_max</t>
+          <t>memmove</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1845,14 +1845,14 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>__ctype_get_mb_cur_max</t>
+          <t>memmove</t>
         </is>
       </c>
       <c r="D68" t="n">
         <v>16</v>
       </c>
       <c r="E68" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="69">
@@ -1873,13 +1873,13 @@
         <v>16</v>
       </c>
       <c r="E69" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>symlink</t>
+          <t>wctomb</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1887,20 +1887,20 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>symlink</t>
+          <t>wctomb</t>
         </is>
       </c>
       <c r="D70" t="n">
         <v>16</v>
       </c>
       <c r="E70" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BZ2_bzDecompress</t>
+          <t>tcgetattr</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1908,20 +1908,20 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>BZ2_bzDecompress</t>
+          <t>tcgetattr</t>
         </is>
       </c>
       <c r="D71" t="n">
         <v>16</v>
       </c>
       <c r="E71" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>__stpcpy_chk</t>
+          <t>tcsetattr</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1929,20 +1929,20 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>__stpcpy_chk</t>
+          <t>tcsetattr</t>
         </is>
       </c>
       <c r="D72" t="n">
         <v>16</v>
       </c>
       <c r="E72" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>__wctomb_chk</t>
+          <t>fchown</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1950,20 +1950,20 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>__wctomb_chk</t>
+          <t>fchown</t>
         </is>
       </c>
       <c r="D73" t="n">
         <v>16</v>
       </c>
       <c r="E73" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>rename</t>
+          <t>perror</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1971,20 +1971,20 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>rename</t>
+          <t>perror</t>
         </is>
       </c>
       <c r="D74" t="n">
         <v>16</v>
       </c>
       <c r="E74" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>fwrite</t>
+          <t>rename</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1992,20 +1992,20 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>fwrite</t>
+          <t>rename</t>
         </is>
       </c>
       <c r="D75" t="n">
         <v>16</v>
       </c>
       <c r="E75" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>utime</t>
+          <t>gmtime</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -2013,20 +2013,20 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>utime</t>
+          <t>gmtime</t>
         </is>
       </c>
       <c r="D76" t="n">
         <v>16</v>
       </c>
       <c r="E76" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>fflush</t>
+          <t>__lxstat64</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -2034,20 +2034,20 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>fflush</t>
+          <t>__lxstat64</t>
         </is>
       </c>
       <c r="D77" t="n">
         <v>16</v>
       </c>
       <c r="E77" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>strcpy</t>
+          <t>strcat</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -2055,20 +2055,20 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>strcpy</t>
+          <t>strcat</t>
         </is>
       </c>
       <c r="D78" t="n">
         <v>16</v>
       </c>
       <c r="E78" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>strncat</t>
+          <t>exit</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -2076,20 +2076,20 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>strncat</t>
+          <t>exit</t>
         </is>
       </c>
       <c r="D79" t="n">
         <v>16</v>
       </c>
       <c r="E79" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>iconv_open</t>
+          <t>fwrite</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -2097,20 +2097,20 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>iconv_open</t>
+          <t>fwrite</t>
         </is>
       </c>
       <c r="D80" t="n">
         <v>16</v>
       </c>
       <c r="E80" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>fopen64</t>
+          <t>lseek64</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -2118,20 +2118,20 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>fopen64</t>
+          <t>lseek64</t>
         </is>
       </c>
       <c r="D81" t="n">
         <v>16</v>
       </c>
       <c r="E81" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>read</t>
+          <t>__fprintf_chk</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -2139,20 +2139,20 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>read</t>
+          <t>__fprintf_chk</t>
         </is>
       </c>
       <c r="D82" t="n">
         <v>16</v>
       </c>
       <c r="E82" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>tcsetattr</t>
+          <t>strerror</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -2160,20 +2160,20 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>tcsetattr</t>
+          <t>strerror</t>
         </is>
       </c>
       <c r="D83" t="n">
         <v>16</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>isatty</t>
+          <t>__ctype_tolower_loc</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -2181,20 +2181,20 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>isatty</t>
+          <t>__ctype_tolower_loc</t>
         </is>
       </c>
       <c r="D84" t="n">
         <v>16</v>
       </c>
       <c r="E84" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>__cxa_finalize</t>
+          <t>__ctype_b_loc</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -2202,20 +2202,20 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>wcstombs</t>
+          <t>__ctype_b_loc</t>
         </is>
       </c>
       <c r="D85" t="n">
         <v>16</v>
       </c>
       <c r="E85" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>open64</t>
+          <t>iconv_open</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -2223,20 +2223,20 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>open64</t>
+          <t>iconv_open</t>
         </is>
       </c>
       <c r="D86" t="n">
         <v>16</v>
       </c>
       <c r="E86" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>strncpy</t>
+          <t>__sprintf_chk</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -2244,221 +2244,221 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>strncpy</t>
+          <t>__sprintf_chk</t>
         </is>
       </c>
       <c r="D87" t="n">
         <v>16</v>
       </c>
       <c r="E87" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>__cxa_finalize</t>
+          <t>main</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>11</v>
+        <v>1635</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>iswprint</t>
+          <t>main</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>16</v>
+        <v>1600</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.7492021110002767</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>umask</t>
+          <t>sub_410510</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>11</v>
+        <v>294</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>umask</t>
+          <t>sub_419f3c</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>16</v>
+        <v>380</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.5795676039615824</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>__errno_location</t>
+          <t>sub_415620</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>11</v>
+        <v>1645</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>__errno_location</t>
+          <t>sub_419d28</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>16</v>
+        <v>1580</v>
       </c>
       <c r="E90" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.568064652073578</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>getenv</t>
+          <t>_start</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>getenv</t>
+          <t>_start</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="E91" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8185034013605443</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>chown</t>
+          <t>sub_404b20</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>chown</t>
+          <t>sub_402140</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E92" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.6361111111111112</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>__cxa_finalize</t>
+          <t>sub_4056cf</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>mblen</t>
+          <t>sub_40fa64</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E93" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>unlink</t>
+          <t>sub_406829</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>unlink</t>
+          <t>sub_4150d4</t>
         </is>
       </c>
       <c r="D94" t="n">
         <v>16</v>
       </c>
       <c r="E94" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>fchown</t>
+          <t>sub_406941</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>fchown</t>
+          <t>sub_403ca4</t>
         </is>
       </c>
       <c r="D95" t="n">
         <v>16</v>
       </c>
       <c r="E95" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.7571428571428572</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>mkdir</t>
+          <t>sub_406a5d</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>mkdir</t>
+          <t>sub_40f074</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E96" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>fgets</t>
+          <t>sub_406b44</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>fgets</t>
+          <t>sub_406b44</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E97" t="n">
         <v>0.8666666666666667</v>
@@ -2467,389 +2467,389 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ioctl</t>
+          <t>sub_406bd2</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>ioctl</t>
+          <t>sub_40e0ec</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E98" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>setlocale</t>
+          <t>sub_406c62</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>setlocale</t>
+          <t>sub_407954</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E99" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>_start</t>
+          <t>sub_406fca</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>_start</t>
+          <t>sub_404cb4</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="E100" t="n">
-        <v>0.7081081081081082</v>
+        <v>0.6600000000000001</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>__cxa_finalize</t>
+          <t>sub_406fd0</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>sub_402128</t>
+          <t>sub_404cb8</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.6600000000000001</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>sub_404b20</t>
+          <t>sub_407030</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>34</v>
+        <v>357</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>sub_402140</t>
+          <t>sub_40d360</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>44</v>
+        <v>336</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7402714932126697</v>
+        <v>0.5676825435489313</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>sub_417c66</t>
+          <t>sub_4104c0</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>sub_402314</t>
+          <t>sub_40fac8</t>
         </is>
       </c>
       <c r="D103" t="n">
         <v>68</v>
       </c>
       <c r="E103" t="n">
-        <v>0.7212121212121212</v>
+        <v>0.6121212121212122</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>sub_406829</t>
+          <t>sub_407486</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>sub_403c1c</t>
+          <t>sub_404e8c</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E104" t="n">
-        <v>0.7523809523809524</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>sub_4085a6</t>
+          <t>sub_40770c</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>sub_403ca4</t>
+          <t>sub_407db4</t>
         </is>
       </c>
       <c r="D105" t="n">
         <v>16</v>
       </c>
       <c r="E105" t="n">
-        <v>0.7523809523809524</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>sub_41e89a</t>
+          <t>sub_407779</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>sub_403f2c</t>
+          <t>sub_40579c</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E106" t="n">
-        <v>0.7391304347826088</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>sub_4040a0</t>
+          <t>sub_407806</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>sub_4040a0</t>
+          <t>sub_406a04</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>992</v>
+        <v>12</v>
       </c>
       <c r="E107" t="n">
-        <v>0.5929769539006432</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>sub_4095ea</t>
+          <t>sub_407890</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>16</v>
+        <v>228</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>sub_4040c4</t>
+          <t>sub_420398</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>12</v>
+        <v>276</v>
       </c>
       <c r="E108" t="n">
-        <v>0.8</v>
+        <v>0.577274319223815</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>sub_4095ea</t>
+          <t>sub_407980</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>16</v>
+        <v>4116</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>sub_40447c</t>
+          <t>sub_4057b8</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>16</v>
+        <v>4216</v>
       </c>
       <c r="E109" t="n">
-        <v>0.8</v>
+        <v>0.6099262083206203</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>sub_404490</t>
+          <t>sub_412330</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>sub_404490</t>
+          <t>sub_413cd0</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E110" t="n">
-        <v>0.6591812865497076</v>
+        <v>0.6474323062558357</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>sub_4044c0</t>
+          <t>sub_407cac</t>
         </is>
       </c>
       <c r="B111" t="n">
+        <v>17</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>sub_40e9ec</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
         <v>28</v>
       </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>sub_4044c0</t>
-        </is>
-      </c>
-      <c r="D111" t="n">
-        <v>1424</v>
-      </c>
       <c r="E111" t="n">
-        <v>0.6029502004814143</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>sub_40770c</t>
+          <t>sub_407f0c</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>sub_404a14</t>
+          <t>sub_405224</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E112" t="n">
-        <v>0.7230769230769232</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>sub_4057cf</t>
+          <t>sub_408374</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>sub_404e8c</t>
+          <t>sub_4119e4</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E113" t="n">
-        <v>0.8</v>
+        <v>0.7342857142857143</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>sub_4057cf</t>
+          <t>sub_408483</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>sub_405224</t>
+          <t>sub_405b8c</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="E114" t="n">
-        <v>0.8</v>
+        <v>0.6685714285714286</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>sub_408b35</t>
+          <t>sub_40851b</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>sub_405344</t>
+          <t>sub_405ddc</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="E115" t="n">
-        <v>0.8</v>
+        <v>0.6718367346938776</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>sub_4057cf</t>
+          <t>sub_40867b</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -2866,103 +2866,103 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>sub_407779</t>
+          <t>sub_408723</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>sub_40579c</t>
+          <t>sub_405fbc</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="E117" t="n">
-        <v>0.8</v>
+        <v>0.6718367346938776</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>sub_407cac</t>
+          <t>sub_408a80</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>sub_40586c</t>
+          <t>sub_406880</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E118" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.7733333333333333</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>sub_407cac</t>
+          <t>sub_408a9a</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>sub_405904</t>
+          <t>sub_406a84</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E119" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.7733333333333333</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>sub_40f80a</t>
+          <t>sub_408b35</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>sub_4059e4</t>
+          <t>sub_405344</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E120" t="n">
-        <v>0.7176470588235295</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>sub_4072c9</t>
+          <t>sub_408bbb</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>sub_405be4</t>
+          <t>sub_406894</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E121" t="n">
         <v>0.7333333333333334</v>
@@ -2971,196 +2971,196 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>sub_4057cf</t>
+          <t>sub_410280</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>sub_405e1c</t>
+          <t>sub_40f8b0</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E122" t="n">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>sub_40402d</t>
+          <t>sub_4102a0</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>sub_406004</t>
+          <t>sub_40f8c0</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E123" t="n">
-        <v>0.75</v>
+        <v>0.5996190476190477</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>sub_4057cf</t>
+          <t>sub_411df0</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>26</v>
+        <v>1329</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>sub_4060dc</t>
+          <t>sub_413800</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>8</v>
+        <v>1336</v>
       </c>
       <c r="E124" t="n">
-        <v>0.8</v>
+        <v>0.5573470783100272</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>sub_4057cf</t>
+          <t>sub_409016</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>sub_4062ec</t>
+          <t>sub_41e39c</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E125" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>sub_4072c9</t>
+          <t>sub_4090be</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>sub_4063d4</t>
+          <t>sub_405e1c</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E126" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>sub_4057cf</t>
+          <t>sub_409286</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>sub_406754</t>
+          <t>sub_4153f4</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E127" t="n">
-        <v>0.8</v>
+        <v>0.6799999999999999</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>sub_4057cf</t>
+          <t>sub_4092b0</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>sub_406864</t>
+          <t>sub_40e8bc</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>8</v>
+        <v>344</v>
       </c>
       <c r="E128" t="n">
-        <v>0.8</v>
+        <v>0.6008282843610493</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>sub_408a80</t>
+          <t>sub_40936f</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>sub_406880</t>
+          <t>sub_407fac</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E129" t="n">
-        <v>0.6613333333333333</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>sub_408a9a</t>
+          <t>sub_40937a</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>sub_406894</t>
+          <t>sub_40733c</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="E130" t="n">
-        <v>0.7411764705882353</v>
+        <v>0.6519276094276094</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>sub_407806</t>
+          <t>sub_4095c4</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -3168,263 +3168,263 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>sub_406a04</t>
+          <t>sub_417bbc</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E131" t="n">
-        <v>0.8</v>
+        <v>0.6933333333333334</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>sub_408a9a</t>
+          <t>sub_4095ea</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>sub_406a84</t>
+          <t>sub_4040c4</t>
         </is>
       </c>
       <c r="D132" t="n">
         <v>12</v>
       </c>
       <c r="E132" t="n">
-        <v>0.7411764705882353</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>sub_406b44</t>
+          <t>sub_409840</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>9</v>
+        <v>670</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>sub_406b44</t>
+          <t>sub_408628</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>12</v>
+        <v>860</v>
       </c>
       <c r="E133" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.5895037408807005</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>sub_412370</t>
+          <t>sub_409a6c</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1049</v>
+        <v>12</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>sub_407340</t>
+          <t>sub_4060dc</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1396</v>
+        <v>8</v>
       </c>
       <c r="E134" t="n">
-        <v>0.633943179246695</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>sub_406c62</t>
+          <t>sub_409a78</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>sub_407954</t>
+          <t>sub_4062ec</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E135" t="n">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>sub_4102a0</t>
+          <t>sub_409abe</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>sub_40f8c0</t>
+          <t>sub_406754</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E136" t="n">
-        <v>0.512</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>sub_407779</t>
+          <t>sub_40e2d0</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>10</v>
+        <v>232</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>sub_407fac</t>
+          <t>sub_40d020</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>8</v>
+        <v>348</v>
       </c>
       <c r="E137" t="n">
-        <v>0.8</v>
+        <v>0.6232615378961197</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>sub_4057cf</t>
+          <t>sub_410330</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>26</v>
+        <v>381</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>sub_408874</t>
+          <t>sub_40fb10</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>8</v>
+        <v>224</v>
       </c>
       <c r="E138" t="n">
-        <v>0.8</v>
+        <v>0.6117398821229221</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>sub_4057cf</t>
+          <t>sub_41eba0</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>sub_40891c</t>
+          <t>sub_417fe0</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="E139" t="n">
-        <v>0.8</v>
+        <v>0.6066087962962964</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>sub_410d00</t>
+          <t>sub_40a0d2</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1735</v>
+        <v>15</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>sub_408990</t>
+          <t>sub_40b464</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>11992</v>
+        <v>12</v>
       </c>
       <c r="E140" t="n">
-        <v>0.6775737933594858</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>sub_404fcd</t>
+          <t>sub_40a43e</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>sub_4090a4</t>
+          <t>sub_405a0c</t>
         </is>
       </c>
       <c r="D141" t="n">
         <v>12</v>
       </c>
       <c r="E141" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>sub_41d669</t>
+          <t>sub_40a4fb</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>sub_4092f4</t>
+          <t>sub_406864</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E142" t="n">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>sub_404fcd</t>
+          <t>sub_40a591</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>sub_40945c</t>
+          <t>sub_420124</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E143" t="n">
         <v>0.7333333333333334</v>
@@ -3433,204 +3433,204 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>sub_407c08</t>
+          <t>sub_40b24b</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>sub_409784</t>
+          <t>sub_408874</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E144" t="n">
-        <v>0.7230769230769232</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>sub_408b35</t>
+          <t>sub_40bd22</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>sub_40b464</t>
+          <t>sub_419cfc</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E145" t="n">
-        <v>0.8</v>
+        <v>0.7733333333333334</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>sub_4095ea</t>
+          <t>sub_415cc0</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>16</v>
+        <v>547</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>sub_40b9f4</t>
+          <t>sub_40ecd8</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>12</v>
+        <v>540</v>
       </c>
       <c r="E146" t="n">
-        <v>0.8</v>
+        <v>0.6306966201306504</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>sub_41978b</t>
+          <t>sub_41ec50</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>24</v>
+        <v>638</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>sub_40bc0c</t>
+          <t>sub_4204b0</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>20</v>
+        <v>684</v>
       </c>
       <c r="E147" t="n">
-        <v>0.744</v>
+        <v>0.5575851037851038</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>sub_4128a4</t>
+          <t>sub_40e0f6</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>sub_40c9b4</t>
+          <t>sub_40891c</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="E148" t="n">
-        <v>0.675</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>sub_416e70</t>
+          <t>sub_40e1ba</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>sub_40c9b8</t>
+          <t>sub_40cf0c</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="E149" t="n">
-        <v>0.5411902162353776</v>
+        <v>0.7066666666666667</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>sub_40f4a4</t>
+          <t>sub_416ed0</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>sub_40cc44</t>
+          <t>sub_418620</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="E150" t="n">
-        <v>0.7166666666666668</v>
+        <v>0.6127573836552165</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>sub_416591</t>
+          <t>sub_40eb33</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>sub_40cecc</t>
+          <t>sub_410b2c</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E151" t="n">
-        <v>0.7428571428571429</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>sub_41ccfa</t>
+          <t>sub_416f40</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>sub_40cf7c</t>
+          <t>sub_4186b8</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="E152" t="n">
-        <v>0.76</v>
+        <v>0.6408333481703047</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>sub_4095ea</t>
+          <t>sub_40f419</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>sub_40d00c</t>
+          <t>sub_40447c</t>
         </is>
       </c>
       <c r="D153" t="n">
@@ -3643,460 +3643,460 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>sub_41c5d6</t>
+          <t>sub_40f5cf</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>sub_40d7e4</t>
+          <t>sub_41f7b4</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E154" t="n">
-        <v>0.7555555555555555</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>sub_411012</t>
+          <t>sub_40f6c0</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>18</v>
+        <v>347</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>sub_40d814</t>
+          <t>sub_40eb58</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>28</v>
+        <v>372</v>
       </c>
       <c r="E155" t="n">
-        <v>0.7125</v>
+        <v>0.5769591915101099</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>sub_410494</t>
+          <t>sub_40f7a6</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>sub_40de14</t>
+          <t>sub_41b6dc</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E156" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.6888888888888889</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>sub_4085a6</t>
+          <t>sub_40faa5</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>sub_40dea4</t>
+          <t>sub_4092f4</t>
         </is>
       </c>
       <c r="D157" t="n">
         <v>16</v>
       </c>
       <c r="E157" t="n">
-        <v>0.7523809523809524</v>
+        <v>0.7333333333333334</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>sub_409a88</t>
+          <t>sub_40fbdd</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>sub_40df54</t>
+          <t>sub_403f2c</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E158" t="n">
-        <v>0.8</v>
+        <v>0.7809523809523811</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>sub_41ccfa</t>
+          <t>sub_4102d0</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>sub_40e134</t>
+          <t>sub_40f8e8</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="E159" t="n">
-        <v>0.76</v>
+        <v>0.5923968253968255</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>sub_40e3c0</t>
+          <t>sub_410494</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>352</v>
+        <v>29</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>sub_40e3c0</t>
+          <t>sub_40cecc</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>848</v>
+        <v>16</v>
       </c>
       <c r="E160" t="n">
-        <v>0.7729123096862096</v>
+        <v>0.7111111111111111</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>sub_4085a6</t>
+          <t>sub_4104b6</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>sub_40e56c</t>
+          <t>sub_405904</t>
         </is>
       </c>
       <c r="D161" t="n">
         <v>16</v>
       </c>
       <c r="E161" t="n">
-        <v>0.7523809523809524</v>
+        <v>0.7333333333333334</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>sub_4104b6</t>
+          <t>sub_410629</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>sub_40e5dc</t>
+          <t>sub_415644</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="E162" t="n">
-        <v>0.76</v>
+        <v>0.6803174603174604</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>sub_415ad4</t>
+          <t>sub_410710</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>24</v>
+        <v>1348</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>sub_40e84c</t>
+          <t>sub_40fe78</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>16</v>
+        <v>1436</v>
       </c>
       <c r="E163" t="n">
-        <v>0.7166666666666668</v>
+        <v>0.6011003548057383</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>sub_4104b6</t>
+          <t>sub_411012</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>sub_40e864</t>
+          <t>sub_40bc0c</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E164" t="n">
-        <v>0.76</v>
+        <v>0.761904761904762</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>sub_4095ea</t>
+          <t>sub_41112d</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>sub_40e87c</t>
+          <t>sub_40f3ac</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E165" t="n">
-        <v>0.8</v>
+        <v>0.7228571428571429</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>sub_40e18f</t>
+          <t>sub_4122d5</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>sub_40e9ec</t>
+          <t>sub_4151b4</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E166" t="n">
-        <v>0.76</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>sub_40f5d0</t>
+          <t>sub_412370</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>239</v>
+        <v>1049</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>sub_40ea18</t>
+          <t>sub_414900</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>320</v>
+        <v>1084</v>
       </c>
       <c r="E167" t="n">
-        <v>0.634359467692801</v>
+        <v>0.5447420355846863</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>sub_40f91b</t>
+          <t>sub_41253b</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>sub_40edc4</t>
+          <t>sub_411554</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E168" t="n">
-        <v>0.7217391304347827</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>sub_416030</t>
+          <t>sub_41279a</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>407</v>
+        <v>17</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>sub_417800</t>
+          <t>sub_40d7e4</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>632</v>
+        <v>12</v>
       </c>
       <c r="E169" t="n">
-        <v>0.6139553936100238</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>sub_406a5d</t>
+          <t>sub_4127a0</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>sub_40f074</t>
+          <t>sub_414d50</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>8</v>
+        <v>176</v>
       </c>
       <c r="E170" t="n">
-        <v>0.8</v>
+        <v>0.5740896686159844</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>sub_4102ca</t>
+          <t>sub_412840</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>sub_40f8e4</t>
+          <t>sub_414e10</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="E171" t="n">
-        <v>0.6584269662921349</v>
+        <v>0.5797596933510246</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>sub_4102d0</t>
+          <t>sub_412dbd</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>sub_40f8e8</t>
+          <t>sub_41c98c</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="E172" t="n">
-        <v>0.5168539325842697</v>
+        <v>0.6933333333333334</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>sub_4074ae</t>
+          <t>sub_4132b0</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>14</v>
+        <v>1192</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>sub_40fa4c</t>
+          <t>sub_407eb0</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>24</v>
+        <v>1688</v>
       </c>
       <c r="E173" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.5963496039131444</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>sub_40565f</t>
+          <t>sub_4133d4</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>sub_40fa64</t>
+          <t>sub_41523c</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E174" t="n">
-        <v>0.7428571428571429</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>sub_41ab93</t>
+          <t>sub_4135b3</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>sub_40fce4</t>
+          <t>sub_40df54</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E175" t="n">
         <v>0.8</v>
@@ -4105,305 +4105,305 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>sub_41350c</t>
+          <t>sub_4137c0</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>sub_40fdcc</t>
+          <t>sub_40cf10</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="E176" t="n">
-        <v>0.7230769230769232</v>
+        <v>0.578899060009866</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>sub_4072c9</t>
+          <t>sub_41394e</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>sub_4100bc</t>
+          <t>sub_4120e4</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E177" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>sub_4072c9</t>
+          <t>sub_41396a</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>sub_4102c4</t>
+          <t>sub_415624</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E178" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>sub_4057cf</t>
+          <t>sub_413980</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>sub_410b2c</t>
+          <t>sub_4119e8</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="E179" t="n">
-        <v>0.8</v>
+        <v>0.6117791859174728</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>sub_4057cf</t>
+          <t>sub_418460</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>26</v>
+        <v>1344</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>sub_411554</t>
+          <t>sub_41a400</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>12</v>
+        <v>1252</v>
       </c>
       <c r="E180" t="n">
-        <v>0.8</v>
+        <v>0.57982661237939</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>sub_40f431</t>
+          <t>sub_4189c0</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>26</v>
+        <v>17303</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>sub_4119e4</t>
+          <t>sub_41a8f0</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>40</v>
+        <v>15752</v>
       </c>
       <c r="E181" t="n">
-        <v>0.6909090909090909</v>
+        <v>0.5590763630615044</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>sub_4057cf</t>
+          <t>sub_4154d0</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>26</v>
+        <v>335</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>sub_4120e4</t>
+          <t>sub_416c88</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>8</v>
+        <v>308</v>
       </c>
       <c r="E182" t="n">
-        <v>0.8</v>
+        <v>0.5889348895411007</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>sub_4072c9</t>
+          <t>sub_41561f</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>sub_412644</t>
+          <t>sub_416dbc</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E183" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>sub_4072c9</t>
+          <t>sub_4157da</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>sub_413334</t>
+          <t>sub_414454</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E184" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>sub_4072c9</t>
+          <t>sub_4157fa</t>
         </is>
       </c>
       <c r="B185" t="n">
+        <v>17</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>sub_40448c</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
         <v>28</v>
       </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>sub_413914</t>
-        </is>
-      </c>
-      <c r="D185" t="n">
-        <v>20</v>
-      </c>
       <c r="E185" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.7714285714285715</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>sub_409a88</t>
+          <t>sub_416065</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>sub_4139b4</t>
+          <t>sub_417854</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E186" t="n">
-        <v>0.8</v>
+        <v>0.7742857142857144</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>sub_406c62</t>
+          <t>sub_416308</t>
         </is>
       </c>
       <c r="B187" t="n">
+        <v>10</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>sub_4183dc</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
         <v>24</v>
       </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>sub_413d04</t>
-        </is>
-      </c>
-      <c r="D187" t="n">
-        <v>12</v>
-      </c>
       <c r="E187" t="n">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>sub_41978b</t>
+          <t>sub_416400</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>24</v>
+        <v>424</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>sub_413e5c</t>
+          <t>sub_40d188</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>20</v>
+        <v>460</v>
       </c>
       <c r="E188" t="n">
-        <v>0.744</v>
+        <v>0.5997244366554915</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>sub_413e9c</t>
+          <t>sub_416562</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>sub_413e9c</t>
+          <t>sub_4139b4</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E189" t="n">
-        <v>0.8625</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>sub_4180a3</t>
+          <t>sub_416591</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -4414,193 +4414,193 @@
         <v>28</v>
       </c>
       <c r="E190" t="n">
-        <v>0.7538461538461538</v>
+        <v>0.7333333333333334</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>sub_41448a</t>
+          <t>sub_416b16</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>sub_41452c</t>
+          <t>sub_4193e4</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="E191" t="n">
-        <v>0.6851063829787234</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>sub_4095ea</t>
+          <t>sub_416e6e</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>sub_414b04</t>
+          <t>sub_40fdcc</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="E192" t="n">
-        <v>0.8</v>
+        <v>0.6933333333333334</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>sub_406c62</t>
+          <t>sub_416e70</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>sub_414dcc</t>
+          <t>sub_418598</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="E193" t="n">
-        <v>0.76</v>
+        <v>0.6371703875447191</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>sub_412840</t>
+          <t>sub_4175d7</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>sub_414e10</t>
+          <t>sub_4157b4</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="E194" t="n">
-        <v>0.5248117039964866</v>
+        <v>0.7047619047619048</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>sub_40e730</t>
+          <t>sub_417679</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>1987</v>
+        <v>18</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>sub_414e90</t>
+          <t>sub_403c1c</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>1356</v>
+        <v>16</v>
       </c>
       <c r="E195" t="n">
-        <v>0.6647589519678633</v>
+        <v>0.7444444444444445</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>sub_415ab7</t>
+          <t>sub_417821</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>sub_414fd4</t>
+          <t>sub_41041c</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="E196" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.7175</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>sub_406829</t>
+          <t>sub_417940</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>16</v>
+        <v>378</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>sub_4150d4</t>
+          <t>sub_419930</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>16</v>
+        <v>396</v>
       </c>
       <c r="E197" t="n">
-        <v>0.7523809523809524</v>
+        <v>0.6207071483564186</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>sub_4077e9</t>
+          <t>sub_417ac0</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>20</v>
+        <v>540</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>sub_41518c</t>
+          <t>sub_419ac0</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>20</v>
+        <v>608</v>
       </c>
       <c r="E198" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.5851723336338344</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>sub_40538e</t>
+          <t>sub_417cc6</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>sub_4151b4</t>
+          <t>sub_40ad2c</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E199" t="n">
         <v>0.7333333333333334</v>
@@ -4609,15 +4609,15 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>sub_407779</t>
+          <t>sub_417db8</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>sub_41523c</t>
+          <t>sub_41805c</t>
         </is>
       </c>
       <c r="D200" t="n">
@@ -4630,57 +4630,57 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>sub_4142db</t>
+          <t>sub_418081</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>sub_4153f4</t>
+          <t>fini</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E201" t="n">
-        <v>0.7028571428571428</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>sub_4133b9</t>
+          <t>sub_41ab93</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>sub_41551c</t>
+          <t>sub_40fce4</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E202" t="n">
-        <v>0.7280000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>sub_4057cf</t>
+          <t>sub_41ae45</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>sub_415624</t>
+          <t>sub_41c774</t>
         </is>
       </c>
       <c r="D203" t="n">
@@ -4693,187 +4693,187 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>sub_4085a6</t>
+          <t>sub_41ae54</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>sub_41583c</t>
+          <t>sub_41e5b4</t>
         </is>
       </c>
       <c r="D204" t="n">
         <v>16</v>
       </c>
       <c r="E204" t="n">
-        <v>0.7523809523809524</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>sub_40a9dd</t>
+          <t>sub_41ae64</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>sub_415bc4</t>
+          <t>sub_41f98c</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E205" t="n">
-        <v>0.7250000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>sub_411bf0</t>
+          <t>sub_41ccfa</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>506</v>
+        <v>19</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>sub_416c88</t>
+          <t>sub_40e134</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>308</v>
+        <v>12</v>
       </c>
       <c r="E206" t="n">
-        <v>0.6769727918115016</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>sub_407c08</t>
+          <t>sub_41ceca</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>29</v>
+        <v>233</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>sub_4172b4</t>
+          <t>sub_420980</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="E207" t="n">
-        <v>0.7230769230769232</v>
+        <v>0.6294501494501495</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>sub_404fcd</t>
+          <t>sub_41cfef</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>sub_417384</t>
+          <t>sub_4153f8</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="E208" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.6205952380952382</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>sub_408b35</t>
+          <t>sub_41d253</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>sub_417444</t>
+          <t>sub_40d784</t>
         </is>
       </c>
       <c r="D209" t="n">
         <v>12</v>
       </c>
       <c r="E209" t="n">
-        <v>0.8</v>
+        <v>0.761904761904762</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>sub_417854</t>
+          <t>sub_41d39a</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>sub_417854</t>
+          <t>sub_411214</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E210" t="n">
-        <v>0.8480000000000001</v>
+        <v>0.682716049382716</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>sub_4165c0</t>
+          <t>sub_41d969</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>623</v>
+        <v>17</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>sub_417dd8</t>
+          <t>sub_40b9f4</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>504</v>
+        <v>12</v>
       </c>
       <c r="E211" t="n">
-        <v>0.6555347971874583</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>sub_407779</t>
+          <t>sub_41e148</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>sub_417e1c</t>
+          <t>sub_40dea4</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E212" t="n">
         <v>0.8</v>
@@ -4882,40 +4882,40 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>sub_4095ea</t>
+          <t>sub_41e25b</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>sub_417fa4</t>
+          <t>sub_41132c</t>
         </is>
       </c>
       <c r="D213" t="n">
         <v>12</v>
       </c>
       <c r="E213" t="n">
-        <v>0.8</v>
+        <v>0.761904761904762</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>sub_4057cf</t>
+          <t>sub_41e305</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>sub_41805c</t>
+          <t>sub_41fe54</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E214" t="n">
         <v>0.8</v>
@@ -4924,788 +4924,116 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>sub_41c5d6</t>
+          <t>sub_41e321</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>sub_4181f4</t>
+          <t>sub_41f844</t>
         </is>
       </c>
       <c r="D215" t="n">
         <v>12</v>
       </c>
       <c r="E215" t="n">
-        <v>0.7555555555555555</v>
+        <v>0.761904761904762</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>sub_4056ef</t>
+          <t>sub_41f059</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>sub_4183dc</t>
+          <t>sub_41c0cc</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E216" t="n">
-        <v>0.8</v>
+        <v>0.6898412698412699</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>sub_40983f</t>
+          <t>sub_41f088</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>sub_41861c</t>
+          <t>sub_420954</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="E217" t="n">
-        <v>0.6888888888888889</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>sub_406c7a</t>
+          <t>init</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>sub_4189ec</t>
+          <t>init</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="E218" t="n">
-        <v>0.7714285714285715</v>
+        <v>0.8000541279313658</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>sub_4072c9</t>
+          <t>sub_41f128</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>sub_419094</t>
+          <t>sub_401ac0</t>
         </is>
       </c>
       <c r="D219" t="n">
         <v>20</v>
       </c>
       <c r="E219" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>sub_408277</t>
+          <t>finalScore</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>27</v>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>sub_4192ac</t>
-        </is>
-      </c>
-      <c r="D220" t="n">
-        <v>20</v>
-      </c>
-      <c r="E220" t="n">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>sub_41e0b6</t>
-        </is>
-      </c>
-      <c r="B221" t="n">
-        <v>20</v>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>sub_4193e4</t>
-        </is>
-      </c>
-      <c r="D221" t="n">
-        <v>12</v>
-      </c>
-      <c r="E221" t="n">
-        <v>0.7555555555555555</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>sub_404fcd</t>
-        </is>
-      </c>
-      <c r="B222" t="n">
-        <v>12</v>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>sub_419454</t>
-        </is>
-      </c>
-      <c r="D222" t="n">
-        <v>12</v>
-      </c>
-      <c r="E222" t="n">
-        <v>0.7333333333333334</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>sub_409afb</t>
-        </is>
-      </c>
-      <c r="B223" t="n">
-        <v>63</v>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>sub_419abc</t>
-        </is>
-      </c>
-      <c r="D223" t="n">
-        <v>64</v>
-      </c>
-      <c r="E223" t="n">
-        <v>0.6777777777777778</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>sub_4095ea</t>
-        </is>
-      </c>
-      <c r="B224" t="n">
-        <v>16</v>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>sub_419be4</t>
-        </is>
-      </c>
-      <c r="D224" t="n">
-        <v>12</v>
-      </c>
-      <c r="E224" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>sub_408f66</t>
-        </is>
-      </c>
-      <c r="B225" t="n">
-        <v>58</v>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>sub_419cfc</t>
-        </is>
-      </c>
-      <c r="D225" t="n">
-        <v>32</v>
-      </c>
-      <c r="E225" t="n">
-        <v>0.7263157894736842</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>sub_408a74</t>
-        </is>
-      </c>
-      <c r="B226" t="n">
-        <v>38</v>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>sub_41a734</t>
-        </is>
-      </c>
-      <c r="D226" t="n">
-        <v>32</v>
-      </c>
-      <c r="E226" t="n">
-        <v>0.7230769230769232</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>sub_410cf1</t>
-        </is>
-      </c>
-      <c r="B227" t="n">
-        <v>106</v>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>sub_41a8ec</t>
-        </is>
-      </c>
-      <c r="D227" t="n">
-        <v>72</v>
-      </c>
-      <c r="E227" t="n">
-        <v>0.6857142857142857</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>sub_41978b</t>
-        </is>
-      </c>
-      <c r="B228" t="n">
-        <v>24</v>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>sub_41aa44</t>
-        </is>
-      </c>
-      <c r="D228" t="n">
-        <v>20</v>
-      </c>
-      <c r="E228" t="n">
-        <v>0.744</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>sub_41978b</t>
-        </is>
-      </c>
-      <c r="B229" t="n">
-        <v>24</v>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>sub_41aa9c</t>
-        </is>
-      </c>
-      <c r="D229" t="n">
-        <v>20</v>
-      </c>
-      <c r="E229" t="n">
-        <v>0.744</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>sub_4095ea</t>
-        </is>
-      </c>
-      <c r="B230" t="n">
-        <v>16</v>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>sub_41ac14</t>
-        </is>
-      </c>
-      <c r="D230" t="n">
-        <v>12</v>
-      </c>
-      <c r="E230" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>sub_404fcd</t>
-        </is>
-      </c>
-      <c r="B231" t="n">
-        <v>12</v>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>sub_41ad0c</t>
-        </is>
-      </c>
-      <c r="D231" t="n">
-        <v>12</v>
-      </c>
-      <c r="E231" t="n">
-        <v>0.7333333333333334</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>sub_41ae74</t>
-        </is>
-      </c>
-      <c r="B232" t="n">
-        <v>47</v>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>sub_41c05c</t>
-        </is>
-      </c>
-      <c r="D232" t="n">
-        <v>48</v>
-      </c>
-      <c r="E232" t="n">
-        <v>0.7200000000000001</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>sub_4057cf</t>
-        </is>
-      </c>
-      <c r="B233" t="n">
-        <v>26</v>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>sub_41c774</t>
-        </is>
-      </c>
-      <c r="D233" t="n">
-        <v>12</v>
-      </c>
-      <c r="E233" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>sub_417a13</t>
-        </is>
-      </c>
-      <c r="B234" t="n">
-        <v>13</v>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>sub_41c9cc</t>
-        </is>
-      </c>
-      <c r="D234" t="n">
-        <v>28</v>
-      </c>
-      <c r="E234" t="n">
-        <v>0.7076923076923077</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>sub_404fcd</t>
-        </is>
-      </c>
-      <c r="B235" t="n">
-        <v>12</v>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>sub_41e39c</t>
-        </is>
-      </c>
-      <c r="D235" t="n">
-        <v>12</v>
-      </c>
-      <c r="E235" t="n">
-        <v>0.7333333333333334</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>sub_4057cf</t>
-        </is>
-      </c>
-      <c r="B236" t="n">
-        <v>26</v>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>sub_41e5b4</t>
-        </is>
-      </c>
-      <c r="D236" t="n">
-        <v>16</v>
-      </c>
-      <c r="E236" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>sub_41378e</t>
-        </is>
-      </c>
-      <c r="B237" t="n">
-        <v>24</v>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>sub_41e97c</t>
-        </is>
-      </c>
-      <c r="D237" t="n">
-        <v>32</v>
-      </c>
-      <c r="E237" t="n">
-        <v>0.7120000000000001</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>sub_404fcd</t>
-        </is>
-      </c>
-      <c r="B238" t="n">
-        <v>12</v>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>sub_41eb6c</t>
-        </is>
-      </c>
-      <c r="D238" t="n">
-        <v>12</v>
-      </c>
-      <c r="E238" t="n">
-        <v>0.7333333333333334</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>sub_41d64b</t>
-        </is>
-      </c>
-      <c r="B239" t="n">
-        <v>21</v>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>sub_41edcc</t>
-        </is>
-      </c>
-      <c r="D239" t="n">
-        <v>20</v>
-      </c>
-      <c r="E239" t="n">
-        <v>0.7523809523809524</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>sub_404fcd</t>
-        </is>
-      </c>
-      <c r="B240" t="n">
-        <v>12</v>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>sub_41ee1c</t>
-        </is>
-      </c>
-      <c r="D240" t="n">
-        <v>12</v>
-      </c>
-      <c r="E240" t="n">
-        <v>0.7333333333333334</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>sub_41d669</t>
-        </is>
-      </c>
-      <c r="B241" t="n">
-        <v>22</v>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>sub_41ee2c</t>
-        </is>
-      </c>
-      <c r="D241" t="n">
-        <v>20</v>
-      </c>
-      <c r="E241" t="n">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>sub_41d8a9</t>
-        </is>
-      </c>
-      <c r="B242" t="n">
-        <v>48</v>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>sub_41ef64</t>
-        </is>
-      </c>
-      <c r="D242" t="n">
-        <v>32</v>
-      </c>
-      <c r="E242" t="n">
-        <v>0.7032258064516129</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>sub_404fcd</t>
-        </is>
-      </c>
-      <c r="B243" t="n">
-        <v>12</v>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>sub_41efec</t>
-        </is>
-      </c>
-      <c r="D243" t="n">
-        <v>12</v>
-      </c>
-      <c r="E243" t="n">
-        <v>0.7333333333333334</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>sub_4057cf</t>
-        </is>
-      </c>
-      <c r="B244" t="n">
-        <v>26</v>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>sub_41f98c</t>
-        </is>
-      </c>
-      <c r="D244" t="n">
-        <v>8</v>
-      </c>
-      <c r="E244" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>sub_4104b6</t>
-        </is>
-      </c>
-      <c r="B245" t="n">
-        <v>21</v>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>sub_41fd54</t>
-        </is>
-      </c>
-      <c r="D245" t="n">
-        <v>16</v>
-      </c>
-      <c r="E245" t="n">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>sub_4057cf</t>
-        </is>
-      </c>
-      <c r="B246" t="n">
-        <v>26</v>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>sub_41fe54</t>
-        </is>
-      </c>
-      <c r="D246" t="n">
-        <v>8</v>
-      </c>
-      <c r="E246" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>sub_40ceaa</t>
-        </is>
-      </c>
-      <c r="B247" t="n">
-        <v>18</v>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>sub_420054</t>
-        </is>
-      </c>
-      <c r="D247" t="n">
-        <v>16</v>
-      </c>
-      <c r="E247" t="n">
-        <v>0.7555555555555555</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>sub_40887b</t>
-        </is>
-      </c>
-      <c r="B248" t="n">
-        <v>25</v>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>sub_4200a4</t>
-        </is>
-      </c>
-      <c r="D248" t="n">
-        <v>20</v>
-      </c>
-      <c r="E248" t="n">
-        <v>0.7636363636363637</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>sub_40a591</t>
-        </is>
-      </c>
-      <c r="B249" t="n">
-        <v>42</v>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>sub_420664</t>
-        </is>
-      </c>
-      <c r="D249" t="n">
-        <v>28</v>
-      </c>
-      <c r="E249" t="n">
-        <v>0.7733333333333334</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>sub_406f8b</t>
-        </is>
-      </c>
-      <c r="B250" t="n">
-        <v>15</v>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>sub_42087c</t>
-        </is>
-      </c>
-      <c r="D250" t="n">
-        <v>16</v>
-      </c>
-      <c r="E250" t="n">
-        <v>0.7333333333333334</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>sub_4057cf</t>
-        </is>
-      </c>
-      <c r="B251" t="n">
-        <v>26</v>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>sub_420954</t>
-        </is>
-      </c>
-      <c r="D251" t="n">
-        <v>12</v>
-      </c>
-      <c r="E251" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>finalScore</t>
-        </is>
-      </c>
-      <c r="B252" t="n">
-        <v>0.589338909247252</v>
+        <v>0.6401810743936196</v>
       </c>
     </row>
   </sheetData>
